--- a/migforecasting/cities11-12/5/d6.xlsx
+++ b/migforecasting/cities11-12/5/d6.xlsx
@@ -19,7 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="466">
+  <si>
+    <t>Новый Уренгой</t>
+  </si>
+  <si>
+    <t>Ноябрьск</t>
+  </si>
   <si>
     <t>2011</t>
   </si>
@@ -36,31 +42,31 @@
     <t>Численность населения (оценка на конец года), тыс. человек</t>
   </si>
   <si>
-    <t>998,1</t>
-  </si>
-  <si>
-    <t>1017,2</t>
-  </si>
-  <si>
-    <t>1036,6</t>
-  </si>
-  <si>
-    <t>109,6</t>
-  </si>
-  <si>
-    <t>108,9</t>
-  </si>
-  <si>
-    <t>107,8</t>
-  </si>
-  <si>
-    <t>178,1</t>
-  </si>
-  <si>
-    <t>178,6</t>
-  </si>
-  <si>
-    <t>177,3</t>
+    <t>44,6</t>
+  </si>
+  <si>
+    <t>46,9</t>
+  </si>
+  <si>
+    <t>48,2</t>
+  </si>
+  <si>
+    <t>112,2</t>
+  </si>
+  <si>
+    <t>116,5</t>
+  </si>
+  <si>
+    <t>115,8</t>
+  </si>
+  <si>
+    <t>109,2</t>
+  </si>
+  <si>
+    <t>108,1</t>
+  </si>
+  <si>
+    <t>107,5</t>
   </si>
   <si>
     <t>Из общей численности – население 
@@ -70,221 +76,217 @@
     <t>моложе трудоспособного</t>
   </si>
   <si>
-    <t>148,7</t>
-  </si>
-  <si>
-    <t>155,1</t>
-  </si>
-  <si>
-    <t>162,8</t>
-  </si>
-  <si>
-    <t>19,1</t>
-  </si>
-  <si>
-    <t>19,4</t>
-  </si>
-  <si>
-    <t>19,6</t>
-  </si>
-  <si>
-    <t>35,9</t>
-  </si>
-  <si>
-    <t>36,7</t>
-  </si>
-  <si>
-    <t>37,1</t>
+    <t>9,7</t>
+  </si>
+  <si>
+    <t>10,4</t>
+  </si>
+  <si>
+    <t>10,9</t>
+  </si>
+  <si>
+    <t>22,2</t>
+  </si>
+  <si>
+    <t>23,0</t>
+  </si>
+  <si>
+    <t>23,8</t>
+  </si>
+  <si>
+    <t>22,3</t>
+  </si>
+  <si>
+    <t>22,5</t>
+  </si>
+  <si>
+    <t>23,1</t>
   </si>
   <si>
     <t>из них детей в возрасте 1-6 лет</t>
   </si>
   <si>
-    <t>63,0</t>
-  </si>
-  <si>
-    <t>66,6</t>
-  </si>
-  <si>
-    <t>71,7</t>
-  </si>
-  <si>
-    <t>8,1</t>
-  </si>
-  <si>
-    <t>8,3</t>
-  </si>
-  <si>
-    <t>8,5</t>
-  </si>
-  <si>
-    <t>13,4</t>
-  </si>
-  <si>
-    <t>14,0</t>
-  </si>
-  <si>
-    <t>14,7</t>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>4,3</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>8,8</t>
+  </si>
+  <si>
+    <t>9,2</t>
+  </si>
+  <si>
+    <t>8,9</t>
   </si>
   <si>
     <t>трудоспособном2)</t>
   </si>
   <si>
-    <t>657,0</t>
-  </si>
-  <si>
-    <t>665,2</t>
-  </si>
-  <si>
-    <t>672,0</t>
-  </si>
-  <si>
-    <t>66,5</t>
-  </si>
-  <si>
-    <t>65,1</t>
-  </si>
-  <si>
-    <t>63,6</t>
-  </si>
-  <si>
-    <t>128,9</t>
-  </si>
-  <si>
-    <t>128,1</t>
-  </si>
-  <si>
-    <t>126,1</t>
+    <t>30,2</t>
+  </si>
+  <si>
+    <t>31,7</t>
+  </si>
+  <si>
+    <t>32,4</t>
+  </si>
+  <si>
+    <t>83,1</t>
+  </si>
+  <si>
+    <t>86,3</t>
+  </si>
+  <si>
+    <t>84,6</t>
+  </si>
+  <si>
+    <t>77,3</t>
+  </si>
+  <si>
+    <t>75,5</t>
+  </si>
+  <si>
+    <t>73,8</t>
   </si>
   <si>
     <t>старше трудоспособного</t>
   </si>
   <si>
-    <t>192,3</t>
-  </si>
-  <si>
-    <t>196,9</t>
-  </si>
-  <si>
-    <t>201,8</t>
-  </si>
-  <si>
-    <t>24,0</t>
-  </si>
-  <si>
-    <t>24,4</t>
-  </si>
-  <si>
-    <t>24,6</t>
-  </si>
-  <si>
-    <t>13,8</t>
-  </si>
-  <si>
-    <t>14,2</t>
+    <t>4,7</t>
+  </si>
+  <si>
+    <t>4,8</t>
+  </si>
+  <si>
+    <t>5,0</t>
+  </si>
+  <si>
+    <t>6,9</t>
+  </si>
+  <si>
+    <t>7,1</t>
+  </si>
+  <si>
+    <t>7,3</t>
+  </si>
+  <si>
+    <t>10,1</t>
+  </si>
+  <si>
+    <t>10,5</t>
   </si>
   <si>
     <t xml:space="preserve">Число родившихся на 1000 человек 
 населения </t>
   </si>
   <si>
+    <t>17,3</t>
+  </si>
+  <si>
+    <t>18,3</t>
+  </si>
+  <si>
+    <t>18,9</t>
+  </si>
+  <si>
+    <t>15,7</t>
+  </si>
+  <si>
+    <t>16,8</t>
+  </si>
+  <si>
+    <t>15,8</t>
+  </si>
+  <si>
     <t>13,2</t>
   </si>
   <si>
-    <t>14,1</t>
+    <t>15,5</t>
+  </si>
+  <si>
+    <t>16,0</t>
+  </si>
+  <si>
+    <t>Число умерших на 1000 человек населения</t>
+  </si>
+  <si>
+    <t>7,0</t>
+  </si>
+  <si>
+    <t>5,8</t>
+  </si>
+  <si>
+    <t>3,6</t>
+  </si>
+  <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>4,4</t>
+  </si>
+  <si>
+    <t>4,6</t>
+  </si>
+  <si>
+    <t>Естественный прирост, убыль (-) 
+на 1000 человек населения</t>
+  </si>
+  <si>
+    <t>10,2</t>
+  </si>
+  <si>
+    <t>11,3</t>
   </si>
   <si>
     <t>13,1</t>
   </si>
   <si>
-    <t>13,3</t>
-  </si>
-  <si>
-    <t>14,3</t>
-  </si>
-  <si>
-    <t>15,4</t>
-  </si>
-  <si>
-    <t>15,1</t>
-  </si>
-  <si>
-    <t>Число умерших на 1000 человек населения</t>
-  </si>
-  <si>
-    <t>10,8</t>
-  </si>
-  <si>
-    <t>10,4</t>
-  </si>
-  <si>
-    <t>13,7</t>
-  </si>
-  <si>
-    <t>7,2</t>
-  </si>
-  <si>
-    <t>6,1</t>
-  </si>
-  <si>
-    <t>Естественный прирост, убыль (-) на 1000 человек населения</t>
-  </si>
-  <si>
-    <t>2,4</t>
-  </si>
-  <si>
-    <t>3,3</t>
-  </si>
-  <si>
-    <t>3,8</t>
-  </si>
-  <si>
-    <t>-0,6</t>
-  </si>
-  <si>
-    <t>-0,3</t>
-  </si>
-  <si>
-    <t>-0,9</t>
-  </si>
-  <si>
-    <t>7,1</t>
-  </si>
-  <si>
-    <t>9,3</t>
-  </si>
-  <si>
-    <t>9,0</t>
-  </si>
-  <si>
-    <t>Миграционный прирост населения, человек</t>
-  </si>
-  <si>
-    <t>16227</t>
-  </si>
-  <si>
-    <t>15805</t>
-  </si>
-  <si>
-    <t>15462</t>
-  </si>
-  <si>
-    <t>-734</t>
-  </si>
-  <si>
-    <t>-695</t>
-  </si>
-  <si>
-    <t>-986</t>
-  </si>
-  <si>
-    <t>782</t>
-  </si>
-  <si>
-    <t>-1211</t>
-  </si>
-  <si>
-    <t>-2864</t>
+    <t>12,1</t>
+  </si>
+  <si>
+    <t>12,5</t>
+  </si>
+  <si>
+    <t>11,0</t>
+  </si>
+  <si>
+    <t>11,4</t>
+  </si>
+  <si>
+    <t>Миграционный прирост, убыль (-) 
+населения, человек</t>
+  </si>
+  <si>
+    <t>1088</t>
+  </si>
+  <si>
+    <t>1798</t>
+  </si>
+  <si>
+    <t>656</t>
+  </si>
+  <si>
+    <t>5448</t>
+  </si>
+  <si>
+    <t>2745</t>
+  </si>
+  <si>
+    <t>-2147</t>
+  </si>
+  <si>
+    <t>-2327</t>
+  </si>
+  <si>
+    <t>-2345</t>
+  </si>
+  <si>
+    <t>-1874</t>
   </si>
   <si>
     <t>ТРУД</t>
@@ -293,85 +295,80 @@
     <t>Среднегодовая численность работников организаций3), тыс. человек</t>
   </si>
   <si>
-    <t>284,4</t>
-  </si>
-  <si>
-    <t>295,4</t>
-  </si>
-  <si>
-    <t>303,7</t>
-  </si>
-  <si>
-    <t>31,9</t>
-  </si>
-  <si>
-    <t>31,5</t>
-  </si>
-  <si>
-    <t>30,2</t>
-  </si>
-  <si>
-    <t>84,3</t>
-  </si>
-  <si>
-    <t>86,3</t>
-  </si>
-  <si>
-    <t>85,8</t>
-  </si>
-  <si>
-    <t>Численность незанятых граждан, обратившихся за содействием в поиске подходящей работы в государственные учреждения службы занятости населения (на конец года), человек</t>
-  </si>
-  <si>
-    <t>5149</t>
-  </si>
-  <si>
-    <t>3641</t>
-  </si>
-  <si>
-    <t>3615</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>620</t>
-  </si>
-  <si>
-    <t>594</t>
-  </si>
-  <si>
-    <t>1838</t>
-  </si>
-  <si>
-    <t>1496</t>
-  </si>
-  <si>
-    <t>1826</t>
+    <t>61,0</t>
+  </si>
+  <si>
+    <t>60,5</t>
+  </si>
+  <si>
+    <t>60,7</t>
+  </si>
+  <si>
+    <t>34,1</t>
+  </si>
+  <si>
+    <t>33,8</t>
+  </si>
+  <si>
+    <t>35,3</t>
+  </si>
+  <si>
+    <t>Численность незанятых граждан, обратившихся за содействием в поиске подходящей работы в государственные учреждения службы занятости населения 
+(на конец года), человек</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>757</t>
+  </si>
+  <si>
+    <t>452</t>
+  </si>
+  <si>
+    <t>374</t>
   </si>
   <si>
     <t>из них признаны безработными</t>
   </si>
   <si>
-    <t>4622</t>
-  </si>
-  <si>
-    <t>3081</t>
-  </si>
-  <si>
-    <t>2300</t>
-  </si>
-  <si>
-    <t>474</t>
-  </si>
-  <si>
-    <t>1676</t>
-  </si>
-  <si>
-    <t>1255</t>
-  </si>
-  <si>
-    <t>1094</t>
+    <t>304</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>491</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>297</t>
   </si>
   <si>
     <t>УРОВЕНЬ ЖИЗНИ НАСЕЛЕНИЯ И СОЦИАЛЬНАЯ СФЕРА</t>
@@ -380,140 +377,124 @@
     <t>Среднемесячная номинальная начисленная заработная плата3), руб.</t>
   </si>
   <si>
-    <t>28768,5</t>
-  </si>
-  <si>
-    <t>32503,1</t>
-  </si>
-  <si>
-    <t>35874,5</t>
-  </si>
-  <si>
-    <t>20116,7</t>
-  </si>
-  <si>
-    <t>22814,1</t>
-  </si>
-  <si>
-    <t>25847,8</t>
-  </si>
-  <si>
-    <t>53416,3</t>
-  </si>
-  <si>
-    <t>59047,8</t>
-  </si>
-  <si>
-    <t>66584,1</t>
+    <t>62916,8</t>
+  </si>
+  <si>
+    <t>70536,9</t>
+  </si>
+  <si>
+    <t>79055,6</t>
+  </si>
+  <si>
+    <t>65256,7</t>
+  </si>
+  <si>
+    <t>71015,0</t>
+  </si>
+  <si>
+    <t>79466,7</t>
+  </si>
+  <si>
+    <t>52523,6</t>
+  </si>
+  <si>
+    <t>57719,6</t>
+  </si>
+  <si>
+    <t>62546,7</t>
   </si>
   <si>
     <t>Средний размер назначенных пенсий, руб.</t>
   </si>
   <si>
-    <t>8886,8</t>
-  </si>
-  <si>
-    <t>9845,6</t>
-  </si>
-  <si>
-    <t>10803,6</t>
-  </si>
-  <si>
-    <t>8255,04)</t>
-  </si>
-  <si>
-    <t>9160,84)</t>
-  </si>
-  <si>
-    <t>10048,54)</t>
-  </si>
-  <si>
-    <t>14968,0</t>
-  </si>
-  <si>
-    <t>16563,6</t>
-  </si>
-  <si>
-    <t>18082,1</t>
+    <t>13051,4</t>
+  </si>
+  <si>
+    <t>14467,2</t>
+  </si>
+  <si>
+    <t>15908,0</t>
+  </si>
+  <si>
+    <t>13271,4</t>
+  </si>
+  <si>
+    <t>14713,2</t>
+  </si>
+  <si>
+    <t>16165,2</t>
+  </si>
+  <si>
+    <t>12572,3</t>
+  </si>
+  <si>
+    <t>13926,5</t>
+  </si>
+  <si>
+    <t>15326,8</t>
   </si>
   <si>
     <t>Численность пенсионеров, тыс. человек</t>
   </si>
   <si>
-    <t>243,0</t>
-  </si>
-  <si>
-    <t>247,2</t>
-  </si>
-  <si>
-    <t>251,7</t>
-  </si>
-  <si>
-    <t>36,44)</t>
-  </si>
-  <si>
-    <t>36,74)</t>
-  </si>
-  <si>
-    <t>37,04)</t>
-  </si>
-  <si>
-    <t>39,0</t>
-  </si>
-  <si>
-    <t>39,1</t>
-  </si>
-  <si>
-    <t>39,6</t>
-  </si>
-  <si>
-    <t>Общая площадь жилых помещений, приходящаяся в среднем на одного городского жителя (на конец года), м2</t>
-  </si>
-  <si>
-    <t>21,8</t>
+    <t>9,9</t>
+  </si>
+  <si>
+    <t>21,4</t>
+  </si>
+  <si>
+    <t>22,1</t>
+  </si>
+  <si>
+    <t>23,5</t>
+  </si>
+  <si>
+    <t>26,0</t>
+  </si>
+  <si>
+    <t>26,9</t>
+  </si>
+  <si>
+    <t>28,1</t>
+  </si>
+  <si>
+    <t>Общая площадь жилых помещений, 
+приходящаяся в среднем на одного 
+городского жителя, м2</t>
   </si>
   <si>
     <t>22,0</t>
   </si>
   <si>
-    <t>22,2</t>
-  </si>
-  <si>
-    <t>22,4</t>
-  </si>
-  <si>
-    <t>22,6</t>
-  </si>
-  <si>
-    <t>23,0</t>
-  </si>
-  <si>
-    <t>24,5</t>
+    <t>21,5</t>
+  </si>
+  <si>
+    <t>17,9</t>
+  </si>
+  <si>
+    <t>17,4</t>
+  </si>
+  <si>
+    <t>18,0</t>
+  </si>
+  <si>
+    <t>18,8</t>
   </si>
   <si>
     <t>Число дошкольных образовательных 
 организаций</t>
   </si>
   <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>43</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>в них:</t>
@@ -522,58 +503,40 @@
     <t>детей, тыс. человек</t>
   </si>
   <si>
-    <t>36,0</t>
-  </si>
-  <si>
-    <t>36,6</t>
-  </si>
-  <si>
-    <t>39,8</t>
-  </si>
-  <si>
-    <t>4,9</t>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>2,6</t>
+  </si>
+  <si>
+    <t>2,9</t>
+  </si>
+  <si>
+    <t>7,6</t>
+  </si>
+  <si>
+    <t>6,7</t>
+  </si>
+  <si>
+    <t>6,8</t>
+  </si>
+  <si>
+    <t>мест, тыс.</t>
+  </si>
+  <si>
+    <t>2,0</t>
+  </si>
+  <si>
+    <t>6,5</t>
   </si>
   <si>
     <t>5,4</t>
   </si>
   <si>
-    <t>9,7</t>
-  </si>
-  <si>
-    <t>9,9</t>
-  </si>
-  <si>
-    <t>10,9</t>
-  </si>
-  <si>
-    <t>мест, тыс.</t>
-  </si>
-  <si>
-    <t>34,3</t>
-  </si>
-  <si>
-    <t>34,1</t>
-  </si>
-  <si>
-    <t>39,4</t>
-  </si>
-  <si>
-    <t>4,3</t>
-  </si>
-  <si>
-    <t>4,5</t>
-  </si>
-  <si>
-    <t>5,0</t>
-  </si>
-  <si>
-    <t>10,2</t>
-  </si>
-  <si>
-    <t>10,1</t>
-  </si>
-  <si>
-    <t>11,2</t>
+    <t>7,4</t>
+  </si>
+  <si>
+    <t>6,6</t>
   </si>
   <si>
     <t>Численность врачей, человек:</t>
@@ -582,618 +545,603 @@
     <t>всего</t>
   </si>
   <si>
-    <t>8739</t>
-  </si>
-  <si>
-    <t>8211</t>
-  </si>
-  <si>
-    <t>8556</t>
-  </si>
-  <si>
-    <t>469</t>
-  </si>
-  <si>
-    <t>458</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>946</t>
-  </si>
-  <si>
-    <t>936</t>
-  </si>
-  <si>
-    <t>927</t>
+    <t>507</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>543</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>485</t>
   </si>
   <si>
     <t>на 10 000 человек населения</t>
   </si>
   <si>
-    <t>87,6</t>
-  </si>
-  <si>
-    <t>80,7</t>
-  </si>
-  <si>
-    <t>82,5</t>
-  </si>
-  <si>
-    <t>42,8</t>
-  </si>
-  <si>
-    <t>42,1</t>
-  </si>
-  <si>
-    <t>41,7</t>
-  </si>
-  <si>
-    <t>53,1</t>
-  </si>
-  <si>
-    <t>52,4</t>
-  </si>
-  <si>
-    <t>52,3</t>
+    <t>113,6</t>
+  </si>
+  <si>
+    <t>110,5</t>
+  </si>
+  <si>
+    <t>112,6</t>
+  </si>
+  <si>
+    <t>41,6</t>
+  </si>
+  <si>
+    <t>42,6</t>
+  </si>
+  <si>
+    <t>40,8</t>
+  </si>
+  <si>
+    <t>43,4</t>
+  </si>
+  <si>
+    <t>44,3</t>
+  </si>
+  <si>
+    <t>45,1</t>
   </si>
   <si>
     <t>Численность среднего медицинского 
 персонала, человек:</t>
   </si>
   <si>
-    <t>13186</t>
-  </si>
-  <si>
-    <t>13330</t>
-  </si>
-  <si>
-    <t>13858</t>
-  </si>
-  <si>
-    <t>1815</t>
-  </si>
-  <si>
-    <t>1873</t>
-  </si>
-  <si>
-    <t>1881</t>
-  </si>
-  <si>
-    <t>2662</t>
-  </si>
-  <si>
-    <t>2642</t>
-  </si>
-  <si>
-    <t>2635</t>
-  </si>
-  <si>
-    <t>132,1</t>
-  </si>
-  <si>
-    <t>131,0</t>
-  </si>
-  <si>
-    <t>133,7</t>
-  </si>
-  <si>
-    <t>165,6</t>
-  </si>
-  <si>
-    <t>172,0</t>
-  </si>
-  <si>
-    <t>174,5</t>
-  </si>
-  <si>
-    <t>149,4</t>
-  </si>
-  <si>
-    <t>147,9</t>
-  </si>
-  <si>
-    <t>148,6</t>
+    <t>1165</t>
+  </si>
+  <si>
+    <t>1171</t>
+  </si>
+  <si>
+    <t>1223</t>
+  </si>
+  <si>
+    <t>1181</t>
+  </si>
+  <si>
+    <t>1216</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>1253</t>
+  </si>
+  <si>
+    <t>1265</t>
+  </si>
+  <si>
+    <t>1289</t>
+  </si>
+  <si>
+    <t>261,0</t>
+  </si>
+  <si>
+    <t>249,4</t>
+  </si>
+  <si>
+    <t>253,6</t>
+  </si>
+  <si>
+    <t>105,3</t>
+  </si>
+  <si>
+    <t>104,4</t>
+  </si>
+  <si>
+    <t>96,9</t>
+  </si>
+  <si>
+    <t>114,7</t>
+  </si>
+  <si>
+    <t>117,0</t>
+  </si>
+  <si>
+    <t>120,0</t>
   </si>
   <si>
     <t>Число больничных организаций</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Число больничных коек круглосуточных стационаров:</t>
   </si>
   <si>
     <t>всего, тыс.</t>
   </si>
   <si>
-    <t>11,4</t>
-  </si>
-  <si>
-    <t>11,3</t>
-  </si>
-  <si>
-    <t>1,5</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>114,4</t>
-  </si>
-  <si>
-    <t>111,6</t>
-  </si>
-  <si>
-    <t>109,1</t>
-  </si>
-  <si>
-    <t>133,9</t>
-  </si>
-  <si>
-    <t>131,8</t>
-  </si>
-  <si>
-    <t>132,9</t>
-  </si>
-  <si>
-    <t>83,9</t>
-  </si>
-  <si>
-    <t>81,1</t>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>0,9</t>
+  </si>
+  <si>
+    <t>0,8</t>
+  </si>
+  <si>
+    <t>225,4</t>
+  </si>
+  <si>
+    <t>216,4</t>
+  </si>
+  <si>
+    <t>213,0</t>
+  </si>
+  <si>
+    <t>81,7</t>
+  </si>
+  <si>
+    <t>77,9</t>
+  </si>
+  <si>
+    <t>71,0</t>
+  </si>
+  <si>
+    <t>78,7</t>
+  </si>
+  <si>
+    <t>79,6</t>
+  </si>
+  <si>
+    <t>80,0</t>
   </si>
   <si>
     <t>Число амбулаторно-поликлинических 
 организаций</t>
   </si>
   <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>Мощность амбулаторно-поликлинических организаций, посещений в смену:</t>
   </si>
   <si>
-    <t>33,8</t>
-  </si>
-  <si>
-    <t>35,3</t>
-  </si>
-  <si>
-    <t>4,7</t>
-  </si>
-  <si>
-    <t>4,6</t>
-  </si>
-  <si>
-    <t>5,9</t>
-  </si>
-  <si>
-    <t>344,1</t>
-  </si>
-  <si>
-    <t>331,8</t>
-  </si>
-  <si>
-    <t>340,8</t>
-  </si>
-  <si>
-    <t>444,8</t>
-  </si>
-  <si>
-    <t>429,9</t>
-  </si>
-  <si>
-    <t>422,1</t>
-  </si>
-  <si>
-    <t>331,0</t>
-  </si>
-  <si>
-    <t>340,3</t>
-  </si>
-  <si>
-    <t>332,3</t>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>228,5</t>
+  </si>
+  <si>
+    <t>217,3</t>
+  </si>
+  <si>
+    <t>215,6</t>
+  </si>
+  <si>
+    <t>199,8</t>
+  </si>
+  <si>
+    <t>192,5</t>
+  </si>
+  <si>
+    <t>183,3</t>
+  </si>
+  <si>
+    <t>81,4</t>
+  </si>
+  <si>
+    <t>72,6</t>
   </si>
   <si>
     <t xml:space="preserve">Число зарегистрированных преступлений </t>
   </si>
   <si>
-    <t>24296</t>
-  </si>
-  <si>
-    <t>23352</t>
-  </si>
-  <si>
-    <t>24977</t>
-  </si>
-  <si>
-    <t>29584)</t>
-  </si>
-  <si>
-    <t>27844)</t>
-  </si>
-  <si>
-    <t>22954)</t>
-  </si>
-  <si>
-    <t>2699</t>
-  </si>
-  <si>
-    <t>2484</t>
-  </si>
-  <si>
-    <t>2070</t>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>722</t>
+  </si>
+  <si>
+    <t>2055</t>
+  </si>
+  <si>
+    <t>1868</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>1818</t>
+  </si>
+  <si>
+    <t>1860</t>
+  </si>
+  <si>
+    <t>1805</t>
   </si>
   <si>
     <t>Выявлено лиц, совершивших преступления, человек</t>
   </si>
   <si>
-    <t>7934</t>
-  </si>
-  <si>
-    <t>7732</t>
-  </si>
-  <si>
-    <t>7644</t>
-  </si>
-  <si>
-    <t>17384)</t>
-  </si>
-  <si>
-    <t>14534)</t>
-  </si>
-  <si>
-    <t>13034)</t>
-  </si>
-  <si>
-    <t>1253</t>
-  </si>
-  <si>
-    <t>1227</t>
-  </si>
-  <si>
-    <t>1292</t>
-  </si>
-  <si>
-    <t>ОСНОВНЫЕ ФОНДЫ</t>
-  </si>
-  <si>
-    <t>Наличие основных фондов организаций5);6) 
-(на конец года), млн. руб.</t>
-  </si>
-  <si>
-    <t>547336,3</t>
-  </si>
-  <si>
-    <t>647463,4</t>
-  </si>
-  <si>
-    <t>704153,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21221,9 </t>
-  </si>
-  <si>
-    <t>22455,4</t>
-  </si>
-  <si>
-    <t>23585,9</t>
-  </si>
-  <si>
-    <t>221190,9</t>
-  </si>
-  <si>
-    <t>256885,2</t>
-  </si>
-  <si>
-    <t>283521,4</t>
-  </si>
-  <si>
-    <t>Ввод в действие основных фондов5), 
-млн. руб.</t>
-  </si>
-  <si>
-    <t>63929,2</t>
-  </si>
-  <si>
-    <t>80637,7</t>
-  </si>
-  <si>
-    <t>65290,3</t>
-  </si>
-  <si>
-    <t>1581,1</t>
-  </si>
-  <si>
-    <t>1585,3</t>
-  </si>
-  <si>
-    <t>1196,0</t>
-  </si>
-  <si>
-    <t>23162,7</t>
-  </si>
-  <si>
-    <t>32999,3</t>
-  </si>
-  <si>
-    <t>33764,9</t>
+    <t>484</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>816</t>
+  </si>
+  <si>
+    <t>802</t>
+  </si>
+  <si>
+    <t>727</t>
+  </si>
+  <si>
+    <t>930</t>
+  </si>
+  <si>
+    <t>945</t>
+  </si>
+  <si>
+    <t>899</t>
+  </si>
+  <si>
+    <t>ОСНОВНЫЕ ФОНДЫ4)</t>
+  </si>
+  <si>
+    <t>Наличие основных фондов организаций5);6) (на конец года), млн. руб.</t>
+  </si>
+  <si>
+    <t>18517,5</t>
+  </si>
+  <si>
+    <t>19318,8</t>
+  </si>
+  <si>
+    <t>21433,6</t>
+  </si>
+  <si>
+    <t>29724,4</t>
+  </si>
+  <si>
+    <t>26976,4</t>
+  </si>
+  <si>
+    <t>27324,0</t>
+  </si>
+  <si>
+    <t>19230,3</t>
+  </si>
+  <si>
+    <t>17988,3</t>
+  </si>
+  <si>
+    <t>18812,3</t>
+  </si>
+  <si>
+    <t>Ввод в действие основных фондов5), млн.руб.</t>
+  </si>
+  <si>
+    <t>1196,9</t>
+  </si>
+  <si>
+    <t>1046,7</t>
+  </si>
+  <si>
+    <t>1654,1</t>
+  </si>
+  <si>
+    <t>620,0</t>
+  </si>
+  <si>
+    <t>368,5</t>
+  </si>
+  <si>
+    <t>1787,8</t>
+  </si>
+  <si>
+    <t>528,4</t>
+  </si>
+  <si>
+    <t>746,9</t>
+  </si>
+  <si>
+    <t>1484,5</t>
   </si>
   <si>
     <t>Степень износа основных фондов 
 (на конец года)7), процентов</t>
   </si>
   <si>
-    <t>42,3</t>
-  </si>
-  <si>
-    <t>42,4</t>
-  </si>
-  <si>
-    <t>59,3</t>
-  </si>
-  <si>
-    <t>60,3</t>
-  </si>
-  <si>
-    <t>64,0</t>
-  </si>
-  <si>
-    <t>42,9</t>
-  </si>
-  <si>
-    <t>43,9</t>
-  </si>
-  <si>
-    <t>Удельный вес полностью изношенных 
-основных фондов в общем объеме 
-основных фондов7), в процентах</t>
-  </si>
-  <si>
-    <t>12,4</t>
-  </si>
-  <si>
-    <t>23,9</t>
-  </si>
-  <si>
-    <t>25,5</t>
-  </si>
-  <si>
-    <t>14,6</t>
+    <t>36,2</t>
+  </si>
+  <si>
+    <t>38,8</t>
+  </si>
+  <si>
+    <t>44,1</t>
+  </si>
+  <si>
+    <t>30,8</t>
+  </si>
+  <si>
+    <t>32,5</t>
+  </si>
+  <si>
+    <t>31,9</t>
+  </si>
+  <si>
+    <t>28,2</t>
+  </si>
+  <si>
+    <t>33,1</t>
+  </si>
+  <si>
+    <t>Удельный вес полностью изношенных основных фондов в общем объеме основных фондов7), в процентах</t>
+  </si>
+  <si>
+    <t>7,8</t>
   </si>
   <si>
     <t>ПРЕДПРИЯТИЯ И ОРГАНИЗАЦИИ</t>
   </si>
   <si>
-    <t>Число предприятий и организаций8) 
-(на конец года; по данным государствен-
-ной регистрации)</t>
-  </si>
-  <si>
-    <t>46021</t>
-  </si>
-  <si>
-    <t>47513</t>
-  </si>
-  <si>
-    <t>50734</t>
-  </si>
-  <si>
-    <t>1714</t>
-  </si>
-  <si>
-    <t>1791</t>
-  </si>
-  <si>
-    <t>1934</t>
-  </si>
-  <si>
-    <t>2388</t>
-  </si>
-  <si>
-    <t>2287</t>
-  </si>
-  <si>
-    <t>2334</t>
+    <t>Число предприятий и организаций 
+(на конец года; по данным государственной регистрации)</t>
+  </si>
+  <si>
+    <t>1384</t>
+  </si>
+  <si>
+    <t>1445</t>
+  </si>
+  <si>
+    <t>1471</t>
+  </si>
+  <si>
+    <t>3522</t>
+  </si>
+  <si>
+    <t>3488</t>
+  </si>
+  <si>
+    <t>3491</t>
+  </si>
+  <si>
+    <t>1939</t>
+  </si>
+  <si>
+    <t>1923</t>
+  </si>
+  <si>
+    <t>1994</t>
   </si>
   <si>
     <t>ДОБЫЧА ПОЛЕЗНЫХ ИСКОПАЕМЫХ, ОБРАБАТЫВАЮЩИЕ ПРОИЗВОДСТВА, 
 ПРОИЗВОДСТВО И РАСПРЕДЕЛЕНИЕ ЭЛЕКТРОЭНЕРГИИ, ГАЗА И ВОДЫ3)</t>
   </si>
   <si>
-    <t>Число действующих организаций по видам деятельности (на конец года):</t>
+    <t>Число действующих организаций 
+по видам деятельности (на конец года):</t>
   </si>
   <si>
     <t>добыча полезных ископаемых</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
   </si>
   <si>
     <t>обрабатывающие производства</t>
   </si>
   <si>
-    <t>473</t>
-  </si>
-  <si>
-    <t>501</t>
-  </si>
-  <si>
-    <t>497</t>
-  </si>
-  <si>
-    <t>53</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>производство и распределение 
+электроэнергии, газа и воды</t>
   </si>
   <si>
     <t>56</t>
   </si>
   <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>производство и распределение электроэнергии, газа и воды</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>112</t>
+    <t>52</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>44</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Объем отгруженных товаров собственного производства, выполненных работ и услуг собственными силами по видам 
-деятельности, млн. руб.:</t>
-  </si>
-  <si>
-    <t>15605,2</t>
-  </si>
-  <si>
-    <t>17237,8</t>
-  </si>
-  <si>
-    <t>...9)</t>
-  </si>
-  <si>
-    <t>166,2</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>60,6</t>
-  </si>
-  <si>
-    <t>... 9)</t>
-  </si>
-  <si>
-    <t>178504,8</t>
-  </si>
-  <si>
-    <t>205027,4</t>
-  </si>
-  <si>
-    <t>215188,0</t>
-  </si>
-  <si>
-    <t>24928,3</t>
-  </si>
-  <si>
-    <t>24924,6</t>
-  </si>
-  <si>
-    <t>24567,5</t>
-  </si>
-  <si>
-    <t>319747,7</t>
-  </si>
-  <si>
-    <t>34372,4</t>
-  </si>
-  <si>
-    <t>39769,4</t>
-  </si>
-  <si>
-    <t>44148,2</t>
-  </si>
-  <si>
-    <t>1829,6</t>
-  </si>
-  <si>
-    <t>1796,4</t>
-  </si>
-  <si>
-    <t>1601,4</t>
-  </si>
-  <si>
-    <t>12848,2</t>
+    <t>Объем отгруженных товаров собственного производства, выполненных работ и услуг собственными силами по видам деятельности, млн. руб.:</t>
+  </si>
+  <si>
+    <t>30,4</t>
+  </si>
+  <si>
+    <t>71,5</t>
+  </si>
+  <si>
+    <t>141,8</t>
+  </si>
+  <si>
+    <t>17510,7</t>
+  </si>
+  <si>
+    <t>19320,0</t>
+  </si>
+  <si>
+    <t>25644,8</t>
+  </si>
+  <si>
+    <t>64006,7</t>
+  </si>
+  <si>
+    <t>51193,0</t>
+  </si>
+  <si>
+    <t>61539,5</t>
+  </si>
+  <si>
+    <t>605,8</t>
+  </si>
+  <si>
+    <t>474,7</t>
+  </si>
+  <si>
+    <t>346,4</t>
+  </si>
+  <si>
+    <t>2994,9</t>
+  </si>
+  <si>
+    <t>3505,0</t>
+  </si>
+  <si>
+    <t>4104,6</t>
+  </si>
+  <si>
+    <t>2983,5</t>
+  </si>
+  <si>
+    <t>3302,6</t>
+  </si>
+  <si>
+    <t>3401,1</t>
+  </si>
+  <si>
+    <t>1296,8</t>
+  </si>
+  <si>
+    <t>1432,9</t>
+  </si>
+  <si>
+    <t>1601,5</t>
+  </si>
+  <si>
+    <t>9673,3</t>
+  </si>
+  <si>
+    <t>11055,5</t>
+  </si>
+  <si>
+    <t>16904,7</t>
+  </si>
+  <si>
+    <t>4423,6</t>
+  </si>
+  <si>
+    <t>5648,5</t>
+  </si>
+  <si>
+    <t>6606,1</t>
   </si>
   <si>
     <t>СТРОИТЕЛЬСТВО</t>
   </si>
   <si>
-    <t>Объем работ, выполненных по виду деятельности ”Строительство”3) (в фактически действовавших ценах), млн. руб.</t>
-  </si>
-  <si>
-    <t>19345,1</t>
-  </si>
-  <si>
-    <t>22617,9</t>
-  </si>
-  <si>
-    <t>29058,4</t>
-  </si>
-  <si>
-    <t>2601,1</t>
-  </si>
-  <si>
-    <t>2988,4</t>
-  </si>
-  <si>
-    <t>1996,7</t>
-  </si>
-  <si>
-    <t>13641,4</t>
+    <t>Объем работ, выполненных по виду 
+деятельности «Строительство»3) (в фактически действовавших ценах), млн. руб.</t>
+  </si>
+  <si>
+    <t>612,4</t>
+  </si>
+  <si>
+    <t>876,0</t>
+  </si>
+  <si>
+    <t>1246,9</t>
+  </si>
+  <si>
+    <t>28047,4</t>
+  </si>
+  <si>
+    <t>17493,3</t>
+  </si>
+  <si>
+    <t>14864,4</t>
+  </si>
+  <si>
+    <t>3866,8</t>
+  </si>
+  <si>
+    <t>5611,4</t>
+  </si>
+  <si>
+    <t>7656,2</t>
   </si>
   <si>
     <t>Ввод в действие объектов социально-культурного назначения:</t>
@@ -1202,66 +1150,72 @@
     <t>жилые дома, тыс. м2 общей площади</t>
   </si>
   <si>
-    <t>688,9</t>
-  </si>
-  <si>
-    <t>703,6</t>
-  </si>
-  <si>
-    <t>708,3</t>
-  </si>
-  <si>
-    <t>13,0</t>
-  </si>
-  <si>
-    <t>12,5</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>4,2</t>
+    <t>28,8</t>
+  </si>
+  <si>
+    <t>24,1</t>
+  </si>
+  <si>
+    <t>51,9</t>
+  </si>
+  <si>
+    <t>38,6</t>
+  </si>
+  <si>
+    <t>21,8</t>
+  </si>
+  <si>
+    <t>10,0</t>
+  </si>
+  <si>
+    <t>10,3</t>
+  </si>
+  <si>
+    <t>57,9</t>
   </si>
   <si>
     <t>квартиры (включая квартиры 
 в общежитиях)</t>
   </si>
   <si>
-    <t>10640</t>
-  </si>
-  <si>
-    <t>11710</t>
-  </si>
-  <si>
-    <t>11980</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>99</t>
+    <t>555</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>819</t>
+  </si>
+  <si>
+    <t>492</t>
+  </si>
+  <si>
+    <t>803</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>1011</t>
   </si>
   <si>
     <t xml:space="preserve">дошкольные образовательные 
 учреждения, мест </t>
   </si>
   <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>717</t>
-  </si>
-  <si>
-    <t>1428</t>
-  </si>
-  <si>
-    <t>900</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>75</t>
   </si>
   <si>
     <t>ТОРГОВЛЯ3)</t>
@@ -1270,31 +1224,31 @@
     <t>Оборот розничной торговли (в фактически действовавших ценах), млн. руб.</t>
   </si>
   <si>
-    <t>51011,1</t>
-  </si>
-  <si>
-    <t>76470,2</t>
-  </si>
-  <si>
-    <t>93648,7</t>
-  </si>
-  <si>
-    <t>2346,6</t>
-  </si>
-  <si>
-    <t>2594,4</t>
-  </si>
-  <si>
-    <t>4205,9</t>
-  </si>
-  <si>
-    <t>1988,1</t>
-  </si>
-  <si>
-    <t>3511,2</t>
-  </si>
-  <si>
-    <t>3886,4</t>
+    <t>1556,7</t>
+  </si>
+  <si>
+    <t>1861,1</t>
+  </si>
+  <si>
+    <t>1936,8</t>
+  </si>
+  <si>
+    <t>4688,5</t>
+  </si>
+  <si>
+    <t>3706,7</t>
+  </si>
+  <si>
+    <t>3535,9</t>
+  </si>
+  <si>
+    <t>5693,0</t>
+  </si>
+  <si>
+    <t>8022,9</t>
+  </si>
+  <si>
+    <t>8373,6</t>
   </si>
   <si>
     <t>Индекс физического объема оборота 
@@ -1302,150 +1256,142 @@
 к предыдущему году</t>
   </si>
   <si>
-    <t>120,9</t>
-  </si>
-  <si>
-    <t>127,1</t>
-  </si>
-  <si>
-    <t>101,0</t>
-  </si>
-  <si>
-    <t>129,1</t>
+    <t>155,9</t>
+  </si>
+  <si>
+    <t>116,4</t>
   </si>
   <si>
     <t>94,1</t>
   </si>
   <si>
-    <t>110,5</t>
-  </si>
-  <si>
-    <t>139,7</t>
-  </si>
-  <si>
-    <t>150,2</t>
-  </si>
-  <si>
-    <t>93,9</t>
+    <t>134,5</t>
+  </si>
+  <si>
+    <t>77,0</t>
+  </si>
+  <si>
+    <t>90,9</t>
+  </si>
+  <si>
+    <t>2,2р</t>
+  </si>
+  <si>
+    <t>137,2</t>
+  </si>
+  <si>
+    <t>99,5</t>
   </si>
   <si>
     <t xml:space="preserve">Оборот общественного питания (в фактически действовавших ценах), млн. руб. </t>
   </si>
   <si>
-    <t>1071,4</t>
-  </si>
-  <si>
-    <t>1464,3</t>
-  </si>
-  <si>
-    <t>1845,5</t>
-  </si>
-  <si>
-    <t>160,8</t>
+    <t>48,5</t>
+  </si>
+  <si>
+    <t>70,9</t>
+  </si>
+  <si>
+    <t>60,6</t>
+  </si>
+  <si>
+    <t>2409,7</t>
+  </si>
+  <si>
+    <t>2065,3</t>
+  </si>
+  <si>
+    <t>2246,7</t>
+  </si>
+  <si>
+    <t>336,5</t>
+  </si>
+  <si>
+    <t>214,1</t>
+  </si>
+  <si>
+    <t>177,7</t>
+  </si>
+  <si>
+    <t>Индекс физического объема оборота 
+общественного питания, в процентах 
+к предыдущему году</t>
+  </si>
+  <si>
+    <t>158,5</t>
+  </si>
+  <si>
+    <t>140,5</t>
+  </si>
+  <si>
+    <t>77,4</t>
+  </si>
+  <si>
+    <t>118,0</t>
+  </si>
+  <si>
+    <t>82,3</t>
+  </si>
+  <si>
+    <t>98,6</t>
+  </si>
+  <si>
+    <t>88,3</t>
+  </si>
+  <si>
+    <t>61,1</t>
+  </si>
+  <si>
+    <t>75,2</t>
+  </si>
+  <si>
+    <t>ИНВЕСТИЦИИ9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инвестиции в основной капитал (в фактически действовавших ценах), млн. руб. </t>
+  </si>
+  <si>
+    <t>11967,7</t>
+  </si>
+  <si>
+    <t>30360,6</t>
+  </si>
+  <si>
+    <t>26685,0</t>
+  </si>
+  <si>
+    <t>67731,2</t>
+  </si>
+  <si>
+    <t>63800,6</t>
+  </si>
+  <si>
+    <t>61313,6</t>
+  </si>
+  <si>
+    <t>10834,1</t>
+  </si>
+  <si>
+    <t>12544,0</t>
+  </si>
+  <si>
+    <t>11000,6</t>
+  </si>
+  <si>
+    <t>Удельный вес инвестиций в основной 
+капитал, финансируемых за счет бюджетных средств, в общем объеме инвестиций, процентов</t>
+  </si>
+  <si>
+    <t>83,7</t>
   </si>
   <si>
     <t>80,6</t>
   </si>
   <si>
-    <t>103,2</t>
-  </si>
-  <si>
-    <t>1250,3</t>
-  </si>
-  <si>
-    <t>1441,3</t>
-  </si>
-  <si>
-    <t>1485,7</t>
-  </si>
-  <si>
-    <t>Индекс физического объема оборота общественного питания, в процентах к предыдущему году</t>
-  </si>
-  <si>
-    <t>105,3</t>
-  </si>
-  <si>
-    <t>106,5</t>
-  </si>
-  <si>
-    <t>116,8</t>
-  </si>
-  <si>
-    <t>118,7</t>
-  </si>
-  <si>
-    <t>49,0</t>
-  </si>
-  <si>
-    <t>83,5</t>
-  </si>
-  <si>
-    <t>116,0</t>
-  </si>
-  <si>
-    <t>111,2</t>
-  </si>
-  <si>
-    <t>97,6</t>
-  </si>
-  <si>
-    <t>ИНВЕСТИЦИИ3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Инвестиции в основной капитал (в фактически действовавших ценах), млн. руб. </t>
-  </si>
-  <si>
-    <t>62401,5</t>
-  </si>
-  <si>
-    <t>68911,0</t>
-  </si>
-  <si>
-    <t>69324,7</t>
-  </si>
-  <si>
-    <t>1598,6</t>
-  </si>
-  <si>
-    <t>2013,9</t>
-  </si>
-  <si>
-    <t>1938,5</t>
-  </si>
-  <si>
-    <t>33102,9</t>
-  </si>
-  <si>
-    <t>49022,5</t>
-  </si>
-  <si>
-    <t>42881,9</t>
-  </si>
-  <si>
-    <t>Удельный вес инвестиций в основной 
-капитал, финансируемых за счет бюджетных средств, в общем объеме инвестиций, 
-процентов</t>
-  </si>
-  <si>
-    <t>26,7</t>
-  </si>
-  <si>
-    <t>29,0</t>
-  </si>
-  <si>
-    <t>28,3</t>
-  </si>
-  <si>
-    <t>10,3</t>
-  </si>
-  <si>
-    <t>0,6</t>
-  </si>
-  <si>
-    <t>1,3</t>
-  </si>
-  <si>
-    <t>0,9</t>
+    <t>3,1</t>
+  </si>
+  <si>
+    <t>5,5</t>
   </si>
   <si>
     <t>в том числе за счет:</t>
@@ -1454,70 +1400,57 @@
     <t>федерального бюджета</t>
   </si>
   <si>
-    <t>13,6</t>
-  </si>
-  <si>
-    <t>12,0</t>
-  </si>
-  <si>
-    <t>2,8</t>
-  </si>
-  <si>
-    <t>3,7</t>
-  </si>
-  <si>
-    <t>0,0</t>
-  </si>
-  <si>
-    <t>0,4</t>
+    <t>0,7</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>0,3</t>
   </si>
   <si>
     <t>0,1</t>
+  </si>
+  <si>
+    <t>0,2</t>
   </si>
   <si>
     <t>бюджета субъекта Российской 
 Федерации</t>
   </si>
   <si>
-    <t>13,5</t>
-  </si>
-  <si>
-    <t>12,8</t>
-  </si>
-  <si>
-    <t>9,8</t>
-  </si>
-  <si>
-    <t>5,7</t>
-  </si>
-  <si>
-    <t>0,3</t>
-  </si>
-  <si>
-    <t>0,2</t>
+    <t>82,8</t>
+  </si>
+  <si>
+    <t>79,7</t>
+  </si>
+  <si>
+    <t>60,3</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>0,6</t>
+  </si>
+  <si>
+    <t>1,3</t>
   </si>
   <si>
     <t xml:space="preserve">
-1) По городскому округу.
+1)  По городскому округу.
 2) Мужчины 16-59 лет, женщины 16-54 года.
 3) По организациям, не относящимся к субъектам малого предпринимательства.
-4) Включая район.
+4) По организациям муниципальной формы собственности.	
 5) По полной учетной стоимости; по коммерческим, без субъектов малого предпринимательства, и некоммерческим организациям.
 6) С учетом переоценки, проведенной на конец года коммерческими организациями (без субъектов малого предпринимательства).
 7) По коммерческим организациям, без субъектов малого предпринимательства.
-8) Не включая граждан (физических лиц), занимающихся предпринимательской деятельностью без образования юридического лица.
-9) Данные не публикуются в целях обеспечения конфиденциальности первичных статистических данных, полученных от организаций, в соответствии с Федеральным 
-    законом от 29.11.2007 № 282- ФЗ «Об официальном статистическом учете и системе государственной статистики в  Российской Федерации»  (п.5 ст.4, ч.1 ст.9).
-10) По организациям, не относящимся к субъектам малого предпринимательства, средняя численность работников которых превышает 15 человек.</t>
-  </si>
-  <si>
-    <t>Красноярск</t>
-  </si>
-  <si>
-    <t>Ачинск</t>
-  </si>
-  <si>
-    <t>Норильск</t>
+8) Данные не публикуются в целях обеспечения конфиденциальности первичных статистических данных, полученных от организаций, в соответствии с Федеральным законом от 29.11.2007 г. № 282-ФЗ «Об официальном статистическом учете и системе государственной статистики в Российской Федерации» (п.5 ст.4, ч.1 ст.9). 
+9) По организациям, не относящимся к субъектам малого предпринимательства и объема инвестиций, не наблюдаемых прямыми статистическими методами, 
+2013 г.– в новых границах активов, приведенных в соответствие с СНС. </t>
+  </si>
+  <si>
+    <t>Салехард</t>
   </si>
 </sst>
 </file>
@@ -1880,10 +1813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1925,31 +1858,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="D2" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="E2" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="F2" t="s">
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>488</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1957,31 +1890,31 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
       <c r="G3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
-        <v>0</v>
-      </c>
       <c r="J3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1989,34 +1922,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2024,34 +1957,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2059,7 +1992,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2067,34 +2000,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2102,34 +2035,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
         <v>31</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>32</v>
-      </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2137,34 +2070,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>38</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>39</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>40</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>41</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>42</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>43</v>
-      </c>
-      <c r="K9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2172,34 +2105,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>48</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>49</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>50</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
         <v>51</v>
       </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>52</v>
-      </c>
-      <c r="K10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2207,34 +2140,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
         <v>54</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
       </c>
       <c r="F11" t="s">
         <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2242,34 +2175,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2277,28 +2210,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="J13" t="s">
         <v>76</v>
@@ -2385,31 +2318,31 @@
         <v>89</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
         <v>90</v>
       </c>
-      <c r="D16" t="s">
+      <c r="G16" t="s">
         <v>91</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
         <v>92</v>
       </c>
-      <c r="F16" t="s">
+      <c r="I16" t="s">
         <v>93</v>
       </c>
-      <c r="G16" t="s">
+      <c r="J16" t="s">
         <v>94</v>
       </c>
-      <c r="H16" t="s">
+      <c r="K16" t="s">
         <v>95</v>
-      </c>
-      <c r="I16" t="s">
-        <v>96</v>
-      </c>
-      <c r="J16" t="s">
-        <v>97</v>
-      </c>
-      <c r="K16" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2417,34 +2350,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" t="s">
         <v>99</v>
       </c>
-      <c r="C17" t="s">
+      <c r="F17" t="s">
         <v>100</v>
       </c>
-      <c r="D17" t="s">
+      <c r="G17" t="s">
         <v>101</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H17" t="s">
         <v>102</v>
       </c>
-      <c r="F17" t="s">
+      <c r="I17" t="s">
         <v>103</v>
       </c>
-      <c r="G17" t="s">
+      <c r="J17" t="s">
         <v>104</v>
       </c>
-      <c r="H17" t="s">
+      <c r="K17" t="s">
         <v>105</v>
-      </c>
-      <c r="I17" t="s">
-        <v>106</v>
-      </c>
-      <c r="J17" t="s">
-        <v>107</v>
-      </c>
-      <c r="K17" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2452,34 +2385,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" t="s">
         <v>109</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" t="s">
         <v>110</v>
       </c>
-      <c r="D18" t="s">
+      <c r="G18" t="s">
         <v>111</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" t="s">
         <v>112</v>
       </c>
-      <c r="F18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>113</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>114</v>
-      </c>
-      <c r="J18" t="s">
-        <v>115</v>
-      </c>
-      <c r="K18" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2487,34 +2420,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2522,34 +2455,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="s">
         <v>118</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>119</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>120</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>121</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>122</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>123</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>124</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>125</v>
-      </c>
-      <c r="J20" t="s">
-        <v>126</v>
-      </c>
-      <c r="K20" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2557,34 +2490,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" t="s">
         <v>128</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>129</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>130</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>131</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>132</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>133</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>134</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>135</v>
-      </c>
-      <c r="J21" t="s">
-        <v>136</v>
-      </c>
-      <c r="K21" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2592,34 +2525,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
         <v>138</v>
       </c>
-      <c r="C22" t="s">
+      <c r="G22" t="s">
         <v>139</v>
       </c>
-      <c r="D22" t="s">
+      <c r="H22" t="s">
         <v>140</v>
       </c>
-      <c r="E22" t="s">
+      <c r="I22" t="s">
         <v>141</v>
       </c>
-      <c r="F22" t="s">
+      <c r="J22" t="s">
         <v>142</v>
       </c>
-      <c r="G22" t="s">
+      <c r="K22" t="s">
         <v>143</v>
-      </c>
-      <c r="H22" t="s">
-        <v>144</v>
-      </c>
-      <c r="I22" t="s">
-        <v>145</v>
-      </c>
-      <c r="J22" t="s">
-        <v>146</v>
-      </c>
-      <c r="K22" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2627,34 +2560,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" t="s">
         <v>148</v>
       </c>
-      <c r="C23" t="s">
+      <c r="H23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" t="s">
         <v>149</v>
       </c>
-      <c r="D23" t="s">
+      <c r="J23" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23" t="s">
         <v>150</v>
-      </c>
-      <c r="E23" t="s">
-        <v>151</v>
-      </c>
-      <c r="F23" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23" t="s">
-        <v>153</v>
-      </c>
-      <c r="H23" t="s">
-        <v>154</v>
-      </c>
-      <c r="I23" t="s">
-        <v>155</v>
-      </c>
-      <c r="J23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2662,34 +2595,34 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C24" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D24" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F24" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G24" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H24" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I24" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="J24" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K24" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2697,7 +2630,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2705,34 +2638,34 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C26" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D26" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E26" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F26" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="I26" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="J26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="K26" t="s">
-        <v>173</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2740,34 +2673,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C27" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D27" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="E27" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="F27" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="G27" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="H27" t="s">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="I27" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="J27" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="K27" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2775,7 +2708,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2783,34 +2716,34 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C29" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="D29" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="E29" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="F29" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="G29" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="H29" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="I29" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="J29" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="K29" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2818,34 +2751,34 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C30" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D30" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E30" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F30" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G30" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="H30" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="I30" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="J30" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="K30" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2853,7 +2786,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2861,34 +2794,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C32" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D32" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="E32" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="F32" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="G32" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="H32" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="I32" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="J32" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="K32" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2896,34 +2829,34 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C33" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D33" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="E33" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="F33" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="G33" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H33" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="I33" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="J33" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="K33" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2931,34 +2864,34 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C34" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D34" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="E34" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="F34" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="G34" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="H34" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="I34" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="J34" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="K34" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2966,7 +2899,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2974,34 +2907,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C36" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D36" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="E36" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="F36" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="G36" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="H36" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="I36" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="J36" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="K36" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3009,34 +2942,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C37" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="D37" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="E37" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="F37" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="G37" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="H37" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="I37" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="J37" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="K37" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3044,34 +2977,34 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C38" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="D38" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="E38" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="F38" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="G38" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="H38" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="I38" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="J38" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="K38" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -3079,7 +3012,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3087,34 +3020,34 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C40" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="D40" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="E40" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="F40" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="G40" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="H40" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="I40" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="J40" t="s">
-        <v>67</v>
+        <v>219</v>
       </c>
       <c r="K40" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -3122,34 +3055,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C41" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="D41" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="E41" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="F41" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="G41" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="H41" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="I41" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="J41" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="K41" t="s">
-        <v>268</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3157,34 +3090,34 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="C42" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="D42" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="E42" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="F42" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="G42" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="H42" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="I42" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="J42" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="K42" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3192,34 +3125,34 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="C43" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="D43" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="E43" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="F43" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="G43" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="H43" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="I43" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="J43" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="K43" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3227,34 +3160,34 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="C44" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="D44" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="E44" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="F44" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="G44" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="H44" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="I44" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="J44" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="K44" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3262,34 +3195,34 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="C45" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="D45" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="E45" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="F45" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="G45" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="H45" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="I45" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="J45" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="K45" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3297,34 +3230,34 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="C46" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="D46" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="E46" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="F46" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="G46" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="H46" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="I46" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="J46" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="K46" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3332,34 +3265,34 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="C47" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="D47" t="s">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="E47" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="F47" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="G47" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="H47" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="I47" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="J47" t="s">
-        <v>199</v>
+        <v>292</v>
       </c>
       <c r="K47" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3367,34 +3300,34 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="D48" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="E48" t="s">
-        <v>319</v>
+        <v>163</v>
       </c>
       <c r="F48" t="s">
-        <v>320</v>
+        <v>167</v>
       </c>
       <c r="G48" t="s">
-        <v>320</v>
+        <v>161</v>
       </c>
       <c r="H48" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="I48" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="J48" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="K48" t="s">
-        <v>322</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3402,34 +3335,34 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="C49" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="D49" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="E49" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="F49" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="G49" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="H49" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="I49" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="J49" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="K49" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3437,34 +3370,34 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="C50" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="D50" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="E50" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="F50" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="G50" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="H50" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="I50" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="J50" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="K50" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3472,34 +3405,34 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="C51" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="D51" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="E51" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="F51" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="G51" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="H51" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="I51" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="J51" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="K51" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3507,7 +3440,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3515,34 +3448,34 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="C53" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="D53" t="s">
-        <v>338</v>
+        <v>212</v>
       </c>
       <c r="E53" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="F53" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="G53" t="s">
-        <v>229</v>
+        <v>312</v>
       </c>
       <c r="H53" t="s">
-        <v>228</v>
+        <v>155</v>
       </c>
       <c r="I53" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="J53" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="K53" t="s">
-        <v>229</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3550,34 +3483,34 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="C54" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="D54" t="s">
-        <v>343</v>
+        <v>155</v>
       </c>
       <c r="E54" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="F54" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="G54" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="H54" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="I54" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="J54" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="K54" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3585,34 +3518,34 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="C55" t="s">
-        <v>351</v>
+        <v>211</v>
       </c>
       <c r="D55" t="s">
-        <v>352</v>
+        <v>212</v>
       </c>
       <c r="E55" t="s">
-        <v>352</v>
+        <v>212</v>
       </c>
       <c r="F55" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="G55" t="s">
-        <v>227</v>
+        <v>325</v>
       </c>
       <c r="H55" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="I55" t="s">
-        <v>250</v>
+        <v>327</v>
       </c>
       <c r="J55" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="K55" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3620,7 +3553,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3628,34 +3561,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
+        <v>309</v>
+      </c>
+      <c r="C57" t="s">
+        <v>331</v>
+      </c>
+      <c r="D57" t="s">
+        <v>332</v>
+      </c>
+      <c r="E57" t="s">
+        <v>333</v>
+      </c>
+      <c r="F57" t="s">
+        <v>334</v>
+      </c>
+      <c r="G57" t="s">
+        <v>335</v>
+      </c>
+      <c r="H57" t="s">
         <v>336</v>
       </c>
-      <c r="C57" t="s">
-        <v>357</v>
-      </c>
-      <c r="D57" t="s">
-        <v>358</v>
-      </c>
-      <c r="E57" t="s">
-        <v>359</v>
-      </c>
-      <c r="F57" t="s">
-        <v>360</v>
-      </c>
-      <c r="G57" t="s">
-        <v>361</v>
-      </c>
-      <c r="H57" t="s">
-        <v>361</v>
-      </c>
       <c r="I57" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="J57" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="K57" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3663,34 +3596,34 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
+        <v>316</v>
+      </c>
+      <c r="C58" t="s">
+        <v>340</v>
+      </c>
+      <c r="D58" t="s">
         <v>341</v>
       </c>
-      <c r="C58" t="s">
-        <v>364</v>
-      </c>
-      <c r="D58" t="s">
-        <v>365</v>
-      </c>
       <c r="E58" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="F58" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="G58" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="H58" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="I58" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="J58" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="K58" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3698,34 +3631,34 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
+        <v>323</v>
+      </c>
+      <c r="C59" t="s">
+        <v>349</v>
+      </c>
+      <c r="D59" t="s">
         <v>350</v>
       </c>
-      <c r="C59" t="s">
-        <v>371</v>
-      </c>
-      <c r="D59" t="s">
-        <v>372</v>
-      </c>
       <c r="E59" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="F59" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="G59" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="H59" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="I59" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="J59" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="K59" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3733,34 +3666,34 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="C60" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="D60" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="E60" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="F60" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="G60" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="H60" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="I60" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="J60" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="K60" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3768,34 +3701,34 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="C61" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="D61" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="E61" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="F61" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="G61" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="H61" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="I61" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="J61" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K61" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3803,7 +3736,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3811,34 +3744,34 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="C63" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="D63" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="E63" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="F63" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="G63" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="H63" t="s">
-        <v>53</v>
+        <v>375</v>
       </c>
       <c r="I63" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="J63" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="K63" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3846,34 +3779,34 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="C64" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="D64" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="E64" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="F64" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="G64" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="H64" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="I64" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="J64" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="K64" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3881,34 +3814,34 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="C65" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="D65" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="E65" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="F65" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G65" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H65" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I65" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J65" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K65" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3931,34 +3864,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="C69" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="D69" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="E69" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="F69" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="G69" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="H69" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="I69" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="J69" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="K69" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3966,34 +3899,34 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="C70" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="D70" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="E70" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F70" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="G70" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="H70" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="I70" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="J70" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="K70" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4001,34 +3934,34 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="C71" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="D71" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="E71" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="F71" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="G71" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="H71" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="I71" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="J71" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="K71" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4036,34 +3969,34 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="C72" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="D72" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="E72" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="F72" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="G72" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="H72" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="I72" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="J72" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="K72" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4071,34 +4004,34 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="C73" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="D73" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="E73" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="F73" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="G73" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="H73" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="I73" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="J73" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K73" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4106,34 +4039,34 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="C74" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="D74" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="E74" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="F74" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="G74" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="H74" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="I74" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="J74" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="K74" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4141,34 +4074,34 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="C75" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="D75" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="E75" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="F75" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="G75" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="H75" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="I75" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="J75" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="K75" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4176,34 +4109,34 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="C76" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="D76" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="E76" t="s">
-        <v>464</v>
+        <v>90</v>
       </c>
       <c r="F76" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="G76" t="s">
-        <v>319</v>
+        <v>234</v>
       </c>
       <c r="H76" t="s">
-        <v>465</v>
+        <v>235</v>
       </c>
       <c r="I76" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="J76" t="s">
-        <v>467</v>
+        <v>69</v>
       </c>
       <c r="K76" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4211,7 +4144,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4219,34 +4152,34 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="C78" t="s">
-        <v>319</v>
+        <v>452</v>
       </c>
       <c r="D78" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="E78" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="F78" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="G78" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="H78" t="s">
-        <v>69</v>
+        <v>455</v>
       </c>
       <c r="I78" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="J78" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="K78" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4254,67 +4187,67 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="C79" t="s">
-        <v>234</v>
+        <v>458</v>
       </c>
       <c r="D79" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="E79" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="F79" t="s">
-        <v>481</v>
+        <v>233</v>
       </c>
       <c r="G79" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="H79" t="s">
-        <v>67</v>
+        <v>462</v>
       </c>
       <c r="I79" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="J79" t="s">
-        <v>483</v>
+        <v>158</v>
       </c>
       <c r="K79" t="s">
-        <v>484</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="C80" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="D80" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="E80" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="F80" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="G80" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="H80" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="I80" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="J80" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="K80" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
@@ -4331,24 +4264,6 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
